--- a/shapes.xlsx
+++ b/shapes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3140" yWindow="140" windowWidth="20860" windowHeight="16340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -201,9 +201,6 @@
     <t>LMISSISSIPPIANCOLOR</t>
   </si>
   <si>
-    <t>MMISSISSIPPISANCOLOR</t>
-  </si>
-  <si>
     <t>UMISSISSIPPIANCOLOR</t>
   </si>
   <si>
@@ -334,6 +331,9 @@
   </si>
   <si>
     <t>Quaternary</t>
+  </si>
+  <si>
+    <t>MMISSISSIPPIANCOLOR</t>
   </si>
 </sst>
 </file>
@@ -747,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3">
         <v>4000</v>
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4">
         <v>2500</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2">
         <v>541</v>
@@ -848,7 +848,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="3">
         <v>4000</v>
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="3">
         <v>3600</v>
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="3">
         <v>3200</v>
@@ -899,7 +899,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="3">
         <v>2800</v>
@@ -916,7 +916,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="3">
         <v>2500</v>
@@ -933,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="3">
         <v>1600</v>
@@ -950,7 +950,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="3">
         <v>1000</v>
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="3">
         <v>541</v>
@@ -984,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="3">
         <v>251</v>
@@ -1001,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" s="4">
         <v>66</v>
@@ -1018,7 +1018,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" s="3">
         <v>2500</v>
@@ -1035,7 +1035,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" s="3">
         <v>2300</v>
@@ -1052,7 +1052,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18" s="3">
         <v>2050</v>
@@ -1069,7 +1069,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" s="3">
         <v>1800</v>
@@ -1086,7 +1086,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" s="3">
         <v>1600</v>
@@ -1103,7 +1103,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" s="3">
         <v>1400</v>
@@ -1120,7 +1120,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C22" s="3">
         <v>1200</v>
@@ -1137,7 +1137,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" s="3">
         <v>1000</v>
@@ -1154,7 +1154,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" s="3">
         <v>720</v>
@@ -1171,7 +1171,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" s="3">
         <v>635</v>
@@ -1188,7 +1188,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26" s="3">
         <v>541</v>
@@ -1205,7 +1205,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C27" s="3">
         <v>485</v>
@@ -1222,7 +1222,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C28" s="3">
         <v>443</v>
@@ -1239,7 +1239,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C29" s="3">
         <v>419</v>
@@ -1256,7 +1256,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30" s="3">
         <v>359</v>
@@ -1273,7 +1273,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C31" s="3">
         <v>299</v>
@@ -1290,7 +1290,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C32" s="3">
         <v>252</v>
@@ -1307,7 +1307,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C33" s="3">
         <v>201</v>
@@ -1324,7 +1324,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C34" s="3">
         <v>145</v>
@@ -1341,7 +1341,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C35" s="3">
         <v>66</v>
@@ -1358,7 +1358,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C36" s="3">
         <v>23</v>
@@ -1375,7 +1375,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C37" s="2">
         <v>2.5</v>
@@ -1392,7 +1392,7 @@
         <v>7</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C38" s="3">
         <v>541</v>
@@ -1409,7 +1409,7 @@
         <v>7</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C39" s="3">
         <v>521</v>
@@ -1426,7 +1426,7 @@
         <v>7</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C40" s="3">
         <v>509</v>
@@ -1443,7 +1443,7 @@
         <v>7</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C41" s="3">
         <v>497</v>
@@ -1460,7 +1460,7 @@
         <v>7</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C42" s="3">
         <v>485</v>
@@ -1477,7 +1477,7 @@
         <v>7</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C43" s="3">
         <v>470</v>
@@ -1494,7 +1494,7 @@
         <v>7</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C44" s="3">
         <v>458</v>
@@ -1511,7 +1511,7 @@
         <v>7</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C45" s="3">
         <v>443</v>
@@ -1528,7 +1528,7 @@
         <v>7</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C46" s="3">
         <v>433</v>
@@ -1545,7 +1545,7 @@
         <v>7</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C47" s="3">
         <v>427</v>
@@ -1562,7 +1562,7 @@
         <v>7</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C48" s="3">
         <v>423</v>
@@ -1579,7 +1579,7 @@
         <v>7</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C49" s="3">
         <v>419</v>
@@ -1596,7 +1596,7 @@
         <v>7</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C50" s="3">
         <v>393</v>
@@ -1613,7 +1613,7 @@
         <v>7</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C51" s="3">
         <v>382</v>
@@ -1630,7 +1630,7 @@
         <v>7</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C52" s="3">
         <v>359</v>
@@ -1647,7 +1647,7 @@
         <v>7</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C53" s="3">
         <v>347</v>
@@ -1656,7 +1656,7 @@
         <v>331</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1664,7 +1664,7 @@
         <v>7</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C54" s="3">
         <v>331</v>
@@ -1673,7 +1673,7 @@
         <v>323</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1681,7 +1681,7 @@
         <v>7</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C55" s="3">
         <v>323</v>
@@ -1690,7 +1690,7 @@
         <v>315</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1698,7 +1698,7 @@
         <v>7</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C56" s="3">
         <v>315</v>
@@ -1707,7 +1707,7 @@
         <v>307</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1715,7 +1715,7 @@
         <v>7</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C57" s="3">
         <v>307</v>
@@ -1724,7 +1724,7 @@
         <v>299</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1732,7 +1732,7 @@
         <v>7</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C58" s="3">
         <v>299</v>
@@ -1741,7 +1741,7 @@
         <v>273</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1749,7 +1749,7 @@
         <v>7</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C59" s="3">
         <v>273</v>
@@ -1758,7 +1758,7 @@
         <v>259</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1766,7 +1766,7 @@
         <v>7</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C60" s="3">
         <v>259</v>
@@ -1775,7 +1775,7 @@
         <v>251</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1783,7 +1783,7 @@
         <v>7</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C61" s="3">
         <v>251</v>
@@ -1792,7 +1792,7 @@
         <v>247</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1800,7 +1800,7 @@
         <v>7</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C62" s="3">
         <v>247</v>
@@ -1809,7 +1809,7 @@
         <v>237</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1817,7 +1817,7 @@
         <v>7</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C63" s="3">
         <v>237</v>
@@ -1826,7 +1826,7 @@
         <v>201</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1834,7 +1834,7 @@
         <v>7</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C64" s="3">
         <v>201</v>
@@ -1843,7 +1843,7 @@
         <v>174</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1851,7 +1851,7 @@
         <v>7</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C65" s="3">
         <v>174</v>
@@ -1860,7 +1860,7 @@
         <v>163</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1868,7 +1868,7 @@
         <v>7</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C66" s="3">
         <v>163</v>
@@ -1877,7 +1877,7 @@
         <v>145</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1885,7 +1885,7 @@
         <v>7</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C67" s="3">
         <v>145</v>
@@ -1894,7 +1894,7 @@
         <v>100</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C68" s="3">
         <v>100</v>
@@ -1911,7 +1911,7 @@
         <v>66</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1919,7 +1919,7 @@
         <v>7</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C69" s="3">
         <v>66</v>
@@ -1928,7 +1928,7 @@
         <v>56</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1936,7 +1936,7 @@
         <v>7</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C70" s="3">
         <v>56</v>
@@ -1945,7 +1945,7 @@
         <v>34</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1953,7 +1953,7 @@
         <v>7</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C71" s="3">
         <v>34</v>
@@ -1962,7 +1962,7 @@
         <v>23</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1970,7 +1970,7 @@
         <v>7</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C72" s="3">
         <v>23</v>
@@ -1979,7 +1979,7 @@
         <v>5</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1987,7 +1987,7 @@
         <v>7</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C73" s="3">
         <v>5</v>
@@ -1996,7 +1996,7 @@
         <v>2.5</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2004,7 +2004,7 @@
         <v>7</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C74" s="3">
         <v>2.5</v>
@@ -2013,7 +2013,7 @@
         <v>1.17E-2</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2021,7 +2021,7 @@
         <v>7</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C75" s="3">
         <v>1.17E-2</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/shapes.xlsx
+++ b/shapes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="-100" yWindow="2640" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,9 +105,6 @@
     <t>CALYMMIANCOLOR</t>
   </si>
   <si>
-    <t>ESTASIANCOLOR</t>
-  </si>
-  <si>
     <t>STENIANCOLOR</t>
   </si>
   <si>
@@ -334,6 +331,9 @@
   </si>
   <si>
     <t>MMISSISSIPPIANCOLOR</t>
+  </si>
+  <si>
+    <t>ECTASIANCOLOR</t>
   </si>
 </sst>
 </file>
@@ -747,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3">
         <v>4000</v>
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4">
         <v>2500</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2">
         <v>541</v>
@@ -848,7 +848,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="3">
         <v>4000</v>
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="3">
         <v>3600</v>
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="3">
         <v>3200</v>
@@ -899,7 +899,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="3">
         <v>2800</v>
@@ -916,7 +916,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="3">
         <v>2500</v>
@@ -933,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="3">
         <v>1600</v>
@@ -950,7 +950,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="3">
         <v>1000</v>
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3">
         <v>541</v>
@@ -984,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3">
         <v>251</v>
@@ -1001,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" s="4">
         <v>66</v>
@@ -1018,7 +1018,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" s="3">
         <v>2500</v>
@@ -1035,7 +1035,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" s="3">
         <v>2300</v>
@@ -1052,7 +1052,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="3">
         <v>2050</v>
@@ -1069,7 +1069,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" s="3">
         <v>1800</v>
@@ -1086,7 +1086,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" s="3">
         <v>1600</v>
@@ -1103,7 +1103,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" s="3">
         <v>1400</v>
@@ -1112,7 +1112,7 @@
         <v>1200</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1120,7 +1120,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" s="3">
         <v>1200</v>
@@ -1129,7 +1129,7 @@
         <v>1000</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1137,7 +1137,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C23" s="3">
         <v>1000</v>
@@ -1146,7 +1146,7 @@
         <v>720</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1154,7 +1154,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" s="3">
         <v>720</v>
@@ -1163,7 +1163,7 @@
         <v>635</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1171,7 +1171,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C25" s="3">
         <v>635</v>
@@ -1180,7 +1180,7 @@
         <v>541</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1188,7 +1188,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C26" s="3">
         <v>541</v>
@@ -1197,7 +1197,7 @@
         <v>485</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1205,7 +1205,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" s="3">
         <v>485</v>
@@ -1214,7 +1214,7 @@
         <v>443</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1222,7 +1222,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" s="3">
         <v>443</v>
@@ -1231,7 +1231,7 @@
         <v>419</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1239,7 +1239,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" s="3">
         <v>419</v>
@@ -1248,7 +1248,7 @@
         <v>359</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1256,7 +1256,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C30" s="3">
         <v>359</v>
@@ -1265,7 +1265,7 @@
         <v>299</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1273,7 +1273,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C31" s="3">
         <v>299</v>
@@ -1282,7 +1282,7 @@
         <v>252</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1290,7 +1290,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C32" s="3">
         <v>252</v>
@@ -1299,7 +1299,7 @@
         <v>201</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1307,7 +1307,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C33" s="3">
         <v>201</v>
@@ -1316,7 +1316,7 @@
         <v>145</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1324,7 +1324,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C34" s="3">
         <v>145</v>
@@ -1333,7 +1333,7 @@
         <v>66</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1341,7 +1341,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C35" s="3">
         <v>66</v>
@@ -1350,7 +1350,7 @@
         <v>23</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1358,7 +1358,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C36" s="3">
         <v>23</v>
@@ -1367,7 +1367,7 @@
         <v>2.5</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="2" customFormat="1">
@@ -1375,7 +1375,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="2">
         <v>2.5</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1392,7 +1392,7 @@
         <v>7</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="3">
         <v>541</v>
@@ -1401,7 +1401,7 @@
         <v>521</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1409,7 +1409,7 @@
         <v>7</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="3">
         <v>521</v>
@@ -1418,7 +1418,7 @@
         <v>509</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1426,7 +1426,7 @@
         <v>7</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="3">
         <v>509</v>
@@ -1435,7 +1435,7 @@
         <v>497</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1443,7 +1443,7 @@
         <v>7</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="3">
         <v>497</v>
@@ -1452,7 +1452,7 @@
         <v>485</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1460,7 +1460,7 @@
         <v>7</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C42" s="3">
         <v>485</v>
@@ -1469,7 +1469,7 @@
         <v>470</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1477,7 +1477,7 @@
         <v>7</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C43" s="3">
         <v>470</v>
@@ -1486,7 +1486,7 @@
         <v>458</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1494,7 +1494,7 @@
         <v>7</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C44" s="3">
         <v>458</v>
@@ -1503,7 +1503,7 @@
         <v>443</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1511,7 +1511,7 @@
         <v>7</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C45" s="3">
         <v>443</v>
@@ -1520,7 +1520,7 @@
         <v>433</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1528,7 +1528,7 @@
         <v>7</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C46" s="3">
         <v>433</v>
@@ -1537,7 +1537,7 @@
         <v>427</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1545,7 +1545,7 @@
         <v>7</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C47" s="3">
         <v>427</v>
@@ -1554,7 +1554,7 @@
         <v>423</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1562,7 +1562,7 @@
         <v>7</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C48" s="3">
         <v>423</v>
@@ -1571,7 +1571,7 @@
         <v>419</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1579,7 +1579,7 @@
         <v>7</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C49" s="3">
         <v>419</v>
@@ -1588,7 +1588,7 @@
         <v>393</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1596,7 +1596,7 @@
         <v>7</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C50" s="3">
         <v>393</v>
@@ -1605,7 +1605,7 @@
         <v>382</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1613,7 +1613,7 @@
         <v>7</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C51" s="3">
         <v>382</v>
@@ -1622,7 +1622,7 @@
         <v>359</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1630,7 +1630,7 @@
         <v>7</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C52" s="3">
         <v>359</v>
@@ -1639,7 +1639,7 @@
         <v>347</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1647,7 +1647,7 @@
         <v>7</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C53" s="3">
         <v>347</v>
@@ -1656,7 +1656,7 @@
         <v>331</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1664,7 +1664,7 @@
         <v>7</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C54" s="3">
         <v>331</v>
@@ -1673,7 +1673,7 @@
         <v>323</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1681,7 +1681,7 @@
         <v>7</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C55" s="3">
         <v>323</v>
@@ -1690,7 +1690,7 @@
         <v>315</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1698,7 +1698,7 @@
         <v>7</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C56" s="3">
         <v>315</v>
@@ -1707,7 +1707,7 @@
         <v>307</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1715,7 +1715,7 @@
         <v>7</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C57" s="3">
         <v>307</v>
@@ -1724,7 +1724,7 @@
         <v>299</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1732,7 +1732,7 @@
         <v>7</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C58" s="3">
         <v>299</v>
@@ -1741,7 +1741,7 @@
         <v>273</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1749,7 +1749,7 @@
         <v>7</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C59" s="3">
         <v>273</v>
@@ -1758,7 +1758,7 @@
         <v>259</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1766,7 +1766,7 @@
         <v>7</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C60" s="3">
         <v>259</v>
@@ -1775,7 +1775,7 @@
         <v>251</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1783,7 +1783,7 @@
         <v>7</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C61" s="3">
         <v>251</v>
@@ -1792,7 +1792,7 @@
         <v>247</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1800,7 +1800,7 @@
         <v>7</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C62" s="3">
         <v>247</v>
@@ -1809,7 +1809,7 @@
         <v>237</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1817,7 +1817,7 @@
         <v>7</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C63" s="3">
         <v>237</v>
@@ -1826,7 +1826,7 @@
         <v>201</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1834,7 +1834,7 @@
         <v>7</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C64" s="3">
         <v>201</v>
@@ -1843,7 +1843,7 @@
         <v>174</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1851,7 +1851,7 @@
         <v>7</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C65" s="3">
         <v>174</v>
@@ -1860,7 +1860,7 @@
         <v>163</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1868,7 +1868,7 @@
         <v>7</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C66" s="3">
         <v>163</v>
@@ -1877,7 +1877,7 @@
         <v>145</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1885,7 +1885,7 @@
         <v>7</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C67" s="3">
         <v>145</v>
@@ -1894,7 +1894,7 @@
         <v>100</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C68" s="3">
         <v>100</v>
@@ -1911,7 +1911,7 @@
         <v>66</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1919,7 +1919,7 @@
         <v>7</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C69" s="3">
         <v>66</v>
@@ -1928,7 +1928,7 @@
         <v>56</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1936,7 +1936,7 @@
         <v>7</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C70" s="3">
         <v>56</v>
@@ -1945,7 +1945,7 @@
         <v>34</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1953,7 +1953,7 @@
         <v>7</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C71" s="3">
         <v>34</v>
@@ -1962,7 +1962,7 @@
         <v>23</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1970,7 +1970,7 @@
         <v>7</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C72" s="3">
         <v>23</v>
@@ -1979,7 +1979,7 @@
         <v>5</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1987,7 +1987,7 @@
         <v>7</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C73" s="3">
         <v>5</v>
@@ -1996,7 +1996,7 @@
         <v>2.5</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2004,7 +2004,7 @@
         <v>7</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C74" s="3">
         <v>2.5</v>
@@ -2013,7 +2013,7 @@
         <v>1.17E-2</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2021,7 +2021,7 @@
         <v>7</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C75" s="3">
         <v>1.17E-2</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
